--- a/materialtabeller.xlsx
+++ b/materialtabeller.xlsx
@@ -18,9 +18,10 @@
     <sheet name="8-Superdan" sheetId="3" r:id="rId4"/>
     <sheet name="3-Nylon" sheetId="7" r:id="rId5"/>
     <sheet name="8-Nylon" sheetId="6" r:id="rId6"/>
-    <sheet name="3-GoldSafety" sheetId="10" r:id="rId7"/>
-    <sheet name="Alloykjetting" sheetId="5" r:id="rId8"/>
-    <sheet name="Ankerkjetting" sheetId="8" r:id="rId9"/>
+    <sheet name="3-Tufflex" sheetId="11" r:id="rId7"/>
+    <sheet name="3-GoldSafety" sheetId="10" r:id="rId8"/>
+    <sheet name="Alloykjetting" sheetId="5" r:id="rId9"/>
+    <sheet name="Ankerkjetting" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="6">
   <si>
     <t>Diameter [mm]</t>
   </si>
@@ -59,7 +60,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +68,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -84,11 +105,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -112,20 +151,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="74">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -146,14 +231,316 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -174,10 +561,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -187,53 +570,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -381,17 +717,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Supertec3" displayName="Supertec3" ref="A1:F30" totalsRowShown="0" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Supertec3" displayName="Supertec3" ref="A1:F30" totalsRowShown="0" dataDxfId="73">
   <autoFilter ref="A1:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Diameter [mm]" dataDxfId="61"/>
-    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="60"/>
-    <tableColumn id="4" name="MBL [tonn]" dataDxfId="59"/>
-    <tableColumn id="5" name="MBL [kN]" dataDxfId="58"/>
-    <tableColumn id="6" name="E-modul [Pa]" dataDxfId="57">
+    <tableColumn id="1" name="Diameter [mm]" dataDxfId="72"/>
+    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="71"/>
+    <tableColumn id="4" name="MBL [tonn]" dataDxfId="70"/>
+    <tableColumn id="5" name="MBL [kN]" dataDxfId="69"/>
+    <tableColumn id="6" name="E-modul [Pa]" dataDxfId="68">
       <calculatedColumnFormula>2000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Materialkoeffisient" dataDxfId="56">
+    <tableColumn id="7" name="Materialkoeffisient" dataDxfId="67">
       <calculatedColumnFormula>3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -399,18 +735,39 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Ankerkjetting" displayName="Ankerkjetting" ref="A1:F9" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F9"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Diameter [mm]" dataDxfId="5"/>
+    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="4"/>
+    <tableColumn id="3" name="MBL [tonn]" dataDxfId="3"/>
+    <tableColumn id="4" name="MBL [kN]" dataDxfId="2">
+      <calculatedColumnFormula>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="1">
+      <calculatedColumnFormula>110000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="0">
+      <calculatedColumnFormula>2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Supertec8" displayName="Supertec8" ref="A1:F30" totalsRowShown="0" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Supertec8" displayName="Supertec8" ref="A1:F30" totalsRowShown="0" dataDxfId="66">
   <autoFilter ref="A1:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Diameter [mm]" dataDxfId="54"/>
-    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="53"/>
-    <tableColumn id="4" name="MBL [tonn]" dataDxfId="52"/>
-    <tableColumn id="3" name="MBL [kN]" dataDxfId="51"/>
-    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="50">
+    <tableColumn id="1" name="Diameter [mm]" dataDxfId="65"/>
+    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="64"/>
+    <tableColumn id="4" name="MBL [tonn]" dataDxfId="63"/>
+    <tableColumn id="3" name="MBL [kN]" dataDxfId="62"/>
+    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="61">
       <calculatedColumnFormula>2000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="49">
+    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="60">
       <calculatedColumnFormula>3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -419,17 +776,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="superdan3" displayName="superdan3" ref="A1:F30" totalsRowShown="0" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="superdan3" displayName="superdan3" ref="A1:F30" totalsRowShown="0" dataDxfId="59">
   <autoFilter ref="A1:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Diameter [mm]" dataDxfId="47"/>
-    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="46"/>
-    <tableColumn id="3" name="MBL [tonn]" dataDxfId="45"/>
-    <tableColumn id="4" name="MBL [kN]" dataDxfId="44"/>
-    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="43">
+    <tableColumn id="1" name="Diameter [mm]" dataDxfId="58"/>
+    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="57"/>
+    <tableColumn id="3" name="MBL [tonn]" dataDxfId="56"/>
+    <tableColumn id="4" name="MBL [kN]" dataDxfId="55"/>
+    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="54">
       <calculatedColumnFormula>2000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="42">
+    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="53">
       <calculatedColumnFormula>3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -438,17 +795,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="superdan8" displayName="superdan8" ref="A1:F30" totalsRowShown="0" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="superdan8" displayName="superdan8" ref="A1:F30" totalsRowShown="0" dataDxfId="52">
   <autoFilter ref="A1:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Diameter [mm]" dataDxfId="40"/>
-    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="39"/>
-    <tableColumn id="3" name="MBL [tonn]" dataDxfId="38"/>
-    <tableColumn id="4" name="MBL [kN]" dataDxfId="37"/>
-    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="36">
+    <tableColumn id="1" name="Diameter [mm]" dataDxfId="51"/>
+    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="50"/>
+    <tableColumn id="3" name="MBL [tonn]" dataDxfId="49"/>
+    <tableColumn id="4" name="MBL [kN]" dataDxfId="48"/>
+    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="47">
       <calculatedColumnFormula>2000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="35">
+    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="46">
       <calculatedColumnFormula>3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -457,17 +814,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="nylon3" displayName="nylon3" ref="A1:F48" totalsRowShown="0" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="nylon3" displayName="nylon3" ref="A1:F48" totalsRowShown="0" dataDxfId="45">
   <autoFilter ref="A1:F48"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Diameter [mm]" dataDxfId="33"/>
-    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="32"/>
-    <tableColumn id="3" name="MBL [tonn]" dataDxfId="31"/>
-    <tableColumn id="4" name="MBL [kN]" dataDxfId="16"/>
-    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="14">
+    <tableColumn id="1" name="Diameter [mm]" dataDxfId="44"/>
+    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="43"/>
+    <tableColumn id="3" name="MBL [tonn]" dataDxfId="42"/>
+    <tableColumn id="4" name="MBL [kN]" dataDxfId="41"/>
+    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="40">
       <calculatedColumnFormula>500000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="15">
+    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="39">
       <calculatedColumnFormula>3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -476,17 +833,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="nylon8" displayName="nylon8" ref="A1:F30" totalsRowShown="0" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="nylon8" displayName="nylon8" ref="A1:F30" totalsRowShown="0" dataDxfId="38">
   <autoFilter ref="A1:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Diameter [mm]" dataDxfId="29"/>
-    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="28"/>
-    <tableColumn id="3" name="MBL [tonn]" dataDxfId="27"/>
-    <tableColumn id="4" name="MBL [kN]" dataDxfId="26"/>
-    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="17">
+    <tableColumn id="1" name="Diameter [mm]" dataDxfId="37"/>
+    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="36"/>
+    <tableColumn id="3" name="MBL [tonn]" dataDxfId="35"/>
+    <tableColumn id="4" name="MBL [kN]" dataDxfId="34"/>
+    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="33">
       <calculatedColumnFormula>500000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="25">
+    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="32">
       <calculatedColumnFormula>3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -495,19 +852,19 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="goldsafety3" displayName="goldsafety3" ref="A1:F13" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="tufflex3" displayName="tufflex3" ref="A1:F22" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:F22"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Diameter [mm]" dataDxfId="6"/>
-    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="5"/>
-    <tableColumn id="3" name="MBL [tonn]" dataDxfId="4"/>
-    <tableColumn id="4" name="MBL [kN]" dataDxfId="1">
-      <calculatedColumnFormula>goldsafety3[[#This Row],[MBL '[tonn']]]*9.80665</calculatedColumnFormula>
+    <tableColumn id="1" name="Diameter [mm]" dataDxfId="26"/>
+    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="25"/>
+    <tableColumn id="3" name="MBL [tonn]" dataDxfId="24"/>
+    <tableColumn id="4" name="MBL [kN]" dataDxfId="23">
+      <calculatedColumnFormula>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="2">
+    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="22">
       <calculatedColumnFormula>2000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="0">
+    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="21">
       <calculatedColumnFormula>3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -516,18 +873,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Alloykjetting" displayName="Alloykjetting" ref="A1:F10" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="A1:F10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="goldsafety3" displayName="goldsafety3" ref="A1:F13" totalsRowShown="0" dataDxfId="20">
+  <autoFilter ref="A1:F13"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Diameter [mm]" dataDxfId="23"/>
-    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="22"/>
-    <tableColumn id="3" name="MBL [tonn]" dataDxfId="21"/>
-    <tableColumn id="4" name="MBL [kN]" dataDxfId="20"/>
-    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="19">
-      <calculatedColumnFormula>110000000000</calculatedColumnFormula>
+    <tableColumn id="1" name="Diameter [mm]" dataDxfId="19"/>
+    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="18"/>
+    <tableColumn id="3" name="MBL [tonn]" dataDxfId="17"/>
+    <tableColumn id="4" name="MBL [kN]" dataDxfId="16">
+      <calculatedColumnFormula>goldsafety3[[#This Row],[MBL '[tonn']]]*9.80665</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="18">
-      <calculatedColumnFormula>2</calculatedColumnFormula>
+    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="15">
+      <calculatedColumnFormula>2000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="14">
+      <calculatedColumnFormula>3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -535,19 +894,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Ankerkjetting" displayName="Ankerkjetting" ref="A1:F9" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="A1:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Alloykjetting" displayName="Alloykjetting" ref="A1:F10" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:F10"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Diameter [mm]" dataDxfId="13"/>
-    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="12"/>
-    <tableColumn id="3" name="MBL [tonn]" dataDxfId="11"/>
-    <tableColumn id="4" name="MBL [kN]" dataDxfId="7">
-      <calculatedColumnFormula>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="9">
+    <tableColumn id="1" name="Diameter [mm]" dataDxfId="12"/>
+    <tableColumn id="2" name="Massetetthet [kg/m]" dataDxfId="11"/>
+    <tableColumn id="3" name="MBL [tonn]" dataDxfId="10"/>
+    <tableColumn id="4" name="MBL [kN]" dataDxfId="9"/>
+    <tableColumn id="5" name="E-modul [Pa]" dataDxfId="8">
       <calculatedColumnFormula>110000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="8">
+    <tableColumn id="6" name="Materialkoeffisient" dataDxfId="7">
       <calculatedColumnFormula>2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1499,6 +1856,243 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4">
+        <v>11.52279320665059</v>
+      </c>
+      <c r="C2" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="D2" s="4">
+        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>299.102825</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:E9" si="0">110000000000</f>
+        <v>110000000000</v>
+      </c>
+      <c r="F2" s="4">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4">
+        <v>16.213487786349059</v>
+      </c>
+      <c r="C3" s="4">
+        <v>41.4</v>
+      </c>
+      <c r="D3" s="4">
+        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>405.99530999999996</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="0"/>
+        <v>110000000000</v>
+      </c>
+      <c r="F3" s="4">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4">
+        <v>18.150948591007129</v>
+      </c>
+      <c r="C4" s="4">
+        <v>47.6</v>
+      </c>
+      <c r="D4" s="4">
+        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>466.79653999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>110000000000</v>
+      </c>
+      <c r="F4" s="4">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20.394324259558569</v>
+      </c>
+      <c r="C5" s="4">
+        <v>54.1</v>
+      </c>
+      <c r="D5" s="4">
+        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>530.53976499999999</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>110000000000</v>
+      </c>
+      <c r="F5" s="4">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4">
+        <v>23.657416141087939</v>
+      </c>
+      <c r="C6" s="4">
+        <v>61</v>
+      </c>
+      <c r="D6" s="4">
+        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>598.20564999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>110000000000</v>
+      </c>
+      <c r="F6" s="4">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4">
+        <v>26.512621537426131</v>
+      </c>
+      <c r="C7" s="4">
+        <v>68.5</v>
+      </c>
+      <c r="D7" s="4">
+        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>671.75552499999992</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>110000000000</v>
+      </c>
+      <c r="F7" s="4">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>33.854578270867222</v>
+      </c>
+      <c r="C8" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="D8" s="4">
+        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>828.661925</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>110000000000</v>
+      </c>
+      <c r="F8" s="4">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4">
+        <v>48.94637822294056</v>
+      </c>
+      <c r="C9" s="4">
+        <v>129.5</v>
+      </c>
+      <c r="D9" s="4">
+        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>1269.9611749999999</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>110000000000</v>
+      </c>
+      <c r="F9" s="4">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState ref="J2:J9">
+    <sortCondition ref="J2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
@@ -4692,7 +5286,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5372,10 +5966,540 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1.083</v>
+      </c>
+      <c r="D2" s="13">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>10.620601949999999</v>
+      </c>
+      <c r="E2" s="14">
+        <f t="shared" ref="E2:E22" si="0">2000000000</f>
+        <v>2000000000</v>
+      </c>
+      <c r="F2" s="13">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1.67</v>
+      </c>
+      <c r="D3" s="13">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>16.377105499999999</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F3" s="13">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>12</v>
+      </c>
+      <c r="B4" s="15">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2.44</v>
+      </c>
+      <c r="D4" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>23.928225999999999</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F4" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>14</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3.3439999999999999</v>
+      </c>
+      <c r="D5" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>32.793437599999997</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F5" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C6" s="15">
+        <v>4.24</v>
+      </c>
+      <c r="D6" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>41.580196000000001</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F6" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>18</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5.3449999999999998</v>
+      </c>
+      <c r="D7" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>52.416544249999994</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F7" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>20</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6.61</v>
+      </c>
+      <c r="D8" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>64.821956499999999</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F8" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.32799999999999996</v>
+      </c>
+      <c r="C9" s="15">
+        <v>7.9</v>
+      </c>
+      <c r="D9" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>77.472534999999993</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F9" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>24</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.38099999999999995</v>
+      </c>
+      <c r="C10" s="15">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D10" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>91.986377000000005</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F10" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>28</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="C11" s="15">
+        <v>12.55</v>
+      </c>
+      <c r="D11" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>123.0734575</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F11" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>32</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.68599999999999994</v>
+      </c>
+      <c r="C12" s="15">
+        <v>16.085000000000001</v>
+      </c>
+      <c r="D12" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>157.73996525000001</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F12" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>36</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="C13" s="15">
+        <v>21.5</v>
+      </c>
+      <c r="D13" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>210.842975</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F13" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>40</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1.009090909090909</v>
+      </c>
+      <c r="C14" s="15">
+        <v>31.5</v>
+      </c>
+      <c r="D14" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>308.90947499999999</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F14" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>44</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1.0681818181818181</v>
+      </c>
+      <c r="C15" s="15">
+        <v>39.35</v>
+      </c>
+      <c r="D15" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>385.89167750000001</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F15" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>48</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1.28</v>
+      </c>
+      <c r="C16" s="15">
+        <v>46.29</v>
+      </c>
+      <c r="D16" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>453.94982849999997</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F16" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>56</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1.72</v>
+      </c>
+      <c r="C17" s="15">
+        <v>63.5</v>
+      </c>
+      <c r="D17" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>622.72227499999997</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F17" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>60</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2.290909090909091</v>
+      </c>
+      <c r="C18" s="15">
+        <v>73.7</v>
+      </c>
+      <c r="D18" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>722.75010499999996</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F18" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>64</v>
+      </c>
+      <c r="B19" s="15">
+        <v>2.65</v>
+      </c>
+      <c r="C19" s="15">
+        <v>92.7</v>
+      </c>
+      <c r="D19" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>909.07645500000001</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F19" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>72</v>
+      </c>
+      <c r="B20" s="15">
+        <v>3.35</v>
+      </c>
+      <c r="C20" s="15">
+        <v>112.1</v>
+      </c>
+      <c r="D20" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>1099.3254649999999</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F20" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>80</v>
+      </c>
+      <c r="B21" s="15">
+        <v>4.1181818181818182</v>
+      </c>
+      <c r="C21" s="15">
+        <v>137.845</v>
+      </c>
+      <c r="D21" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>1351.7976692499999</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F21" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>88</v>
+      </c>
+      <c r="B22" s="15">
+        <v>5</v>
+      </c>
+      <c r="C22" s="15">
+        <v>145.44499999999999</v>
+      </c>
+      <c r="D22" s="15">
+        <f>tufflex3[[#This Row],[MBL '[tonn']]]*9.80665</f>
+        <v>1426.3282092499999</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="0"/>
+        <v>2000000000</v>
+      </c>
+      <c r="F22" s="15">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5691,7 +6815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -5932,241 +7056,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4">
-        <v>11.52279320665059</v>
-      </c>
-      <c r="C2" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="D2" s="4">
-        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
-        <v>299.102825</v>
-      </c>
-      <c r="E2" s="7">
-        <f t="shared" ref="E2:E9" si="0">110000000000</f>
-        <v>110000000000</v>
-      </c>
-      <c r="F2" s="4">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>28</v>
-      </c>
-      <c r="B3" s="4">
-        <v>16.213487786349059</v>
-      </c>
-      <c r="C3" s="4">
-        <v>41.4</v>
-      </c>
-      <c r="D3" s="4">
-        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
-        <v>405.99530999999996</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" si="0"/>
-        <v>110000000000</v>
-      </c>
-      <c r="F3" s="4">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4">
-        <v>18.150948591007129</v>
-      </c>
-      <c r="C4" s="4">
-        <v>47.6</v>
-      </c>
-      <c r="D4" s="4">
-        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
-        <v>466.79653999999999</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>110000000000</v>
-      </c>
-      <c r="F4" s="4">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4">
-        <v>20.394324259558569</v>
-      </c>
-      <c r="C5" s="4">
-        <v>54.1</v>
-      </c>
-      <c r="D5" s="4">
-        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
-        <v>530.53976499999999</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>110000000000</v>
-      </c>
-      <c r="F5" s="4">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4">
-        <v>23.657416141087939</v>
-      </c>
-      <c r="C6" s="4">
-        <v>61</v>
-      </c>
-      <c r="D6" s="4">
-        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
-        <v>598.20564999999999</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>110000000000</v>
-      </c>
-      <c r="F6" s="4">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>36</v>
-      </c>
-      <c r="B7" s="4">
-        <v>26.512621537426131</v>
-      </c>
-      <c r="C7" s="4">
-        <v>68.5</v>
-      </c>
-      <c r="D7" s="4">
-        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
-        <v>671.75552499999992</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>110000000000</v>
-      </c>
-      <c r="F7" s="4">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>40</v>
-      </c>
-      <c r="B8" s="4">
-        <v>33.854578270867222</v>
-      </c>
-      <c r="C8" s="4">
-        <v>84.5</v>
-      </c>
-      <c r="D8" s="4">
-        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
-        <v>828.661925</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>110000000000</v>
-      </c>
-      <c r="F8" s="4">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4">
-        <v>48.94637822294056</v>
-      </c>
-      <c r="C9" s="4">
-        <v>129.5</v>
-      </c>
-      <c r="D9" s="4">
-        <f>Ankerkjetting[[#This Row],[MBL '[tonn']]]*9.80665</f>
-        <v>1269.9611749999999</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>110000000000</v>
-      </c>
-      <c r="F9" s="4">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <sortState ref="J2:J9">
-    <sortCondition ref="J2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>